--- a/2020-10-29-16MC.xlsx
+++ b/2020-10-29-16MC.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be534843b9fe5053/桌面/202407/layout论文/data-layout/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_8D1807759041D7BC231594A5D5B176146DF4A0D3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91915999-D367-4138-8173-B4DDF0A184C4}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="14790" windowHeight="7605" tabRatio="642"/>
+    <workbookView xWindow="5407" yWindow="3652" windowWidth="16200" windowHeight="9270" tabRatio="642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="2" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
   <si>
     <t>length of recharge area</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -27,12 +33,44 @@
     <t>width of recharge area</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>MC order</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of machines in this MC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine order</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>length of machine</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>width of machine</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>test MC order</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>length of workshop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>width of workshop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,14 +429,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -513,6 +545,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -642,57 +683,51 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -707,24 +742,32 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -766,7 +809,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -798,9 +841,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -832,6 +893,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1007,264 +1086,292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:B27"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.265625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="9.06640625" style="2"/>
+    <col min="6" max="6" width="22.73046875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>5.5</v>
       </c>
-      <c r="F2" s="3">
-        <v>2</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="6">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
         <v>80</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
         <v>5.4</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>4.2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3">
+      <c r="D7" s="2">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
+      <c r="D9" s="2">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
         <v>5.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
         <v>10</v>
       </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3">
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
+      <c r="C12" s="2">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
         <v>12</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>8.4</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="2">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2">
@@ -1277,135 +1384,132 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
         <v>15</v>
       </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3">
+      <c r="D16" s="2">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>1</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
       </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="C18">
+      <c r="D17" s="2">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="2">
         <v>17</v>
       </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="D18" s="2">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C19" s="2">
         <v>18</v>
       </c>
-      <c r="D19">
-        <v>11</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="C20">
+      <c r="D19" s="2">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="2">
         <v>19</v>
       </c>
-      <c r="D20">
-        <v>11</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="C21">
+      <c r="D20" s="2">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="2">
         <v>20</v>
       </c>
-      <c r="D21">
-        <v>11</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="D21" s="2">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C22" s="2">
         <v>21</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>8</v>
       </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="C23">
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="2">
         <v>22</v>
       </c>
-      <c r="D23">
-        <v>9</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24">
+      <c r="D23" s="2">
+        <v>9</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="2">
         <v>23</v>
       </c>
-      <c r="D24">
-        <v>11</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="2">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="B28" s="2"/>
+      <c r="B26" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -1415,308 +1519,336 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:B27"/>
+      <selection activeCell="A30" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.125" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="31.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.86328125" style="2" customWidth="1"/>
+    <col min="3" max="5" width="9.06640625" style="2"/>
+    <col min="6" max="6" width="13.86328125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>5.5</v>
       </c>
       <c r="F2" s="2">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>80</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
         <v>5.4</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>4.2</v>
       </c>
       <c r="F3" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-      <c r="E4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
         <v>5</v>
       </c>
       <c r="F4" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3">
+      <c r="D7" s="2">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="D9">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
+      <c r="D9" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
         <v>12</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>5.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
         <v>10</v>
       </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
+      <c r="D11" s="2">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
+      <c r="C12" s="2">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
         <v>12</v>
       </c>
-      <c r="D13">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="3">
+      <c r="D13" s="2">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
+      <c r="D14" s="2">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
         <v>14</v>
       </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3">
+      <c r="D15" s="2">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
         <v>15</v>
       </c>
-      <c r="D16">
-        <v>11</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="2">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2">
         <v>5.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
         <v>16</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>12</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>5.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C18" s="2">
         <v>17</v>
       </c>
@@ -1727,101 +1859,98 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="C19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="2">
         <v>18</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>12</v>
       </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="C20">
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="2">
         <v>19</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>12</v>
       </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="C21">
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="2">
         <v>20</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>8</v>
       </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="C22">
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="2">
         <v>21</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>8</v>
       </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="C23">
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="2">
         <v>22</v>
       </c>
-      <c r="D23">
-        <v>11</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24">
+      <c r="D23" s="2">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="2">
         <v>23</v>
       </c>
-      <c r="D24">
-        <v>11</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="2">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="C25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="2">
         <v>24</v>
       </c>
-      <c r="D25">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="7" t="s">
+      <c r="D25" s="2">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="B28" s="2"/>
+      <c r="B26" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -1830,285 +1959,307 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:B27"/>
+      <selection activeCell="A32" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="32.46484375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.1328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.265625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="9.06640625" style="2"/>
+    <col min="6" max="6" width="16.73046875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>5.5</v>
       </c>
-      <c r="F2" s="3">
-        <v>4</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="6">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
         <v>80</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>60</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
         <v>15</v>
       </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>15</v>
       </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
         <v>15</v>
       </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3">
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="D9">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
+      <c r="D9" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
         <v>12</v>
       </c>
-      <c r="E10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3">
+      <c r="E10" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
         <v>10</v>
       </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
+      <c r="D11" s="2">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="2">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
         <v>12</v>
       </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
         <v>12</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>6.7</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
         <v>14</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>12</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>5.9</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="2">
@@ -2121,138 +2272,135 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
         <v>16</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>8</v>
       </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="C18">
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="2">
         <v>17</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>8</v>
       </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="C19">
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="2">
         <v>18</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>8</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="C20">
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="2">
         <v>19</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>8</v>
       </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="C21">
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="2">
         <v>20</v>
       </c>
-      <c r="D21">
-        <v>11</v>
-      </c>
-      <c r="E21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="C22">
+      <c r="D21" s="2">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="2">
         <v>21</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>12</v>
       </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="C23">
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="2">
         <v>22</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>12</v>
       </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24">
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="2">
         <v>23</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>12</v>
       </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="C25">
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="2">
         <v>24</v>
       </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="7" t="s">
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="7">
-        <v>5</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="5">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2">
         <v>25</v>
       </c>
-      <c r="D26">
-        <v>11</v>
-      </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="B28" s="2"/>
+      <c r="D26" s="2">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -2261,95 +2409,123 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.375" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="1" max="1" width="32.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" customWidth="1"/>
+    <col min="4" max="5" width="9.06640625" style="2"/>
+    <col min="6" max="6" width="23.1328125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>5.5</v>
       </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
         <v>80</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4">
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2">
@@ -2359,14 +2535,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2">
@@ -2376,14 +2552,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
         <v>6</v>
       </c>
       <c r="D7" s="2">
@@ -2393,82 +2569,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="D9" s="9">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10" s="9">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3">
+      <c r="D9" s="6">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
         <v>10</v>
       </c>
-      <c r="D11" s="3">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-      <c r="C12">
+      <c r="D11" s="6">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
         <v>11</v>
       </c>
       <c r="D12" s="2">
@@ -2478,14 +2654,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
         <v>12</v>
       </c>
       <c r="D13" s="2">
@@ -2495,14 +2671,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
         <v>13</v>
       </c>
       <c r="D14" s="2">
@@ -2512,14 +2688,14 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
         <v>14</v>
       </c>
       <c r="D15" s="2">
@@ -2529,11 +2705,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="2">
@@ -2546,80 +2722,80 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
         <v>16</v>
       </c>
-      <c r="D17" s="9">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="C18">
+      <c r="D17" s="6">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="2">
         <v>17</v>
       </c>
-      <c r="D18" s="9">
-        <v>7</v>
-      </c>
-      <c r="E18" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="C19">
+      <c r="D18" s="6">
+        <v>7</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="2">
         <v>18</v>
       </c>
-      <c r="D19" s="9">
-        <v>7</v>
-      </c>
-      <c r="E19" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="C20">
+      <c r="D19" s="6">
+        <v>7</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="2">
         <v>19</v>
       </c>
-      <c r="D20" s="9">
-        <v>11</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="D20" s="6">
+        <v>11</v>
+      </c>
+      <c r="E20" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="C21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="2">
         <v>20</v>
       </c>
-      <c r="D21" s="9">
-        <v>11</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="D21" s="6">
+        <v>11</v>
+      </c>
+      <c r="E21" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="C22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="2">
         <v>21</v>
       </c>
-      <c r="D22" s="9">
-        <v>11</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="D22" s="6">
+        <v>11</v>
+      </c>
+      <c r="E22" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="C23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="2">
         <v>22</v>
       </c>
       <c r="D23" s="2">
@@ -2629,8 +2805,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="C24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="2">
         <v>23</v>
       </c>
       <c r="D24" s="2">
@@ -2640,8 +2816,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="C25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="2">
         <v>24</v>
       </c>
       <c r="D25" s="2">
@@ -2651,24 +2827,24 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="B28" s="2"/>
+      <c r="B26" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -2677,28 +2853,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1"/>
+      <selection activeCell="C30" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.75" customWidth="1"/>
-    <col min="2" max="2" width="27.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.73046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.46484375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.625" customWidth="1"/>
+    <col min="6" max="6" width="27.59765625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="1">
@@ -2710,112 +2913,112 @@
       <c r="E2" s="1">
         <v>5.5</v>
       </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
         <v>80</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="7">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="D3" s="5">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
         <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7">
-        <v>4</v>
-      </c>
-      <c r="F4">
+      <c r="D4" s="5">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>15</v>
       </c>
-      <c r="E5" s="8">
-        <v>7</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="5">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <v>15</v>
       </c>
-      <c r="E6" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
+      <c r="E6" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>15</v>
       </c>
-      <c r="E7" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
+      <c r="E7" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -2824,14 +3027,14 @@
       <c r="C8" s="1">
         <v>7</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <v>15</v>
       </c>
-      <c r="E8" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="E8" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2841,15 +3044,15 @@
       <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E9" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -2858,15 +3061,15 @@
       <c r="C10" s="1">
         <v>9</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="1">
         <v>10</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -2882,8 +3085,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -2899,8 +3102,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="1">
@@ -2916,7 +3119,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2933,8 +3136,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="1">
@@ -2943,15 +3146,15 @@
       <c r="C15" s="1">
         <v>14</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>5.5</v>
       </c>
-      <c r="E15" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3">
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -2960,15 +3163,15 @@
       <c r="C16" s="1">
         <v>15</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>5.5</v>
       </c>
-      <c r="E16" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="1">
@@ -2984,7 +3187,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>17</v>
       </c>
@@ -2995,7 +3198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>18</v>
       </c>
@@ -3006,40 +3209,40 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>19</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <v>8</v>
       </c>
-      <c r="E20" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>20</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>8</v>
       </c>
-      <c r="E21" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>21</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>8</v>
       </c>
-      <c r="E22" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>22</v>
       </c>
@@ -3050,7 +3253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>23</v>
       </c>
@@ -3061,24 +3264,21 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="B28" s="6"/>
+      <c r="B26" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
